--- a/Week5/docs/SE1601_SWP391_OnlineShop_WeeklyReport_W5.xlsx
+++ b/Week5/docs/SE1601_SWP391_OnlineShop_WeeklyReport_W5.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -313,6 +313,9 @@
     <t>Notes (Work Item in Details)</t>
   </si>
   <si>
+    <t>| Quy tắc nhóm |</t>
+  </si>
+  <si>
     <t>Continue implementing Iteration 1</t>
   </si>
   <si>
@@ -322,9 +325,21 @@
     <t>none</t>
   </si>
   <si>
+    <t>1 . Tất cả mọi người trong nhóm đều phải tự code front - end , back - end của màn hình được giao .</t>
+  </si>
+  <si>
+    <t>2. Chỉ có technical Leadder . làm tài liệu phần chung là file Backlog , Weekly Meeting , vạch ra khung chương trình của nhóm</t>
+  </si>
+  <si>
+    <t>3. Chi có TL design databasse table diagram ( 20-25 tables )</t>
+  </si>
+  <si>
     <t>II. Team Contribution</t>
   </si>
   <si>
+    <t>4 . Mọi thành viên 1 ngày code 2 giờ , viết docs 30 phút , họp nhóm hàng ngày 10 phút .</t>
+  </si>
+  <si>
     <t>Project Task</t>
   </si>
   <si>
@@ -332,6 +347,9 @@
   </si>
   <si>
     <t>Notes (Task Details, etc.)</t>
+  </si>
+  <si>
+    <t>5. Ai không code được thì kêu lên với nhóm , nhóm cùng giúp đỡ để code dc . Phải ghi vấn đề gặp phải đê nêu ra phương hướng giải quyết.</t>
   </si>
   <si>
     <t>Navbar + Footer + Product List</t>
@@ -411,12 +429,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="51">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,7 +446,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -436,7 +453,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -445,57 +461,36 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF800080"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -641,9 +636,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,22 +660,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -680,6 +673,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -687,40 +703,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,16 +726,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,22 +751,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,7 +798,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,12 +819,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFEF2CD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -847,31 +843,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,49 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,90 +999,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1038,6 +1022,55 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1132,17 +1165,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,8 +1222,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1182,20 +1242,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,169 +1280,170 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1388,72 +1453,89 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="32" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1473,35 +1555,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1809,312 +1885,312 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="3" ht="27.6" spans="7:12">
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" ht="18" spans="7:7">
-      <c r="G4" s="30"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" ht="22.8" spans="7:11">
-      <c r="G5" s="31"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="44"/>
+      <c r="G5" s="41"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" ht="18" spans="7:7">
-      <c r="G6" s="30"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" ht="28.2" spans="1:18">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
     </row>
     <row r="8" ht="28.2" spans="1:18">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="49"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="59"/>
     </row>
     <row r="10" ht="27.6" spans="7:12">
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="43" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" ht="18" spans="7:7">
-      <c r="G11" s="30"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" ht="22.8" spans="7:11">
-      <c r="G12" s="31"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45" t="s">
+      <c r="G12" s="41"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" ht="18" spans="7:7">
-      <c r="G13" s="30"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" ht="28.2" spans="2:18">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="46" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
     </row>
     <row r="15" ht="28.2" spans="2:18">
-      <c r="B15" s="33"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="47" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="59"/>
     </row>
     <row r="17" ht="21" spans="3:14">
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" ht="21" spans="3:14">
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
     </row>
     <row r="19" ht="21" spans="3:14">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" ht="21" spans="3:14">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" ht="21" spans="3:14">
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" ht="21" spans="3:14">
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" ht="21" spans="3:14">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" ht="21" spans="3:14">
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" ht="21" spans="3:14">
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" ht="21" spans="3:14">
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" ht="21" spans="3:14">
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" ht="21" spans="3:14">
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2127,15 +2203,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
@@ -2147,284 +2223,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:1">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="15.6" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="15" spans="1:19">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="35"/>
+    </row>
+    <row r="6" ht="15" spans="1:19">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" ht="15" spans="1:19">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="F7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" ht="15" spans="6:19">
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="36"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:19">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" ht="15" spans="1:19">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7">
-        <v>5</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>19</v>
+      <c r="D16" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7">
+      <c r="A22" s="10">
         <v>1</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" ht="16.35" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
+      <c r="A23" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:6">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>42</v>
+      <c r="C24" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A25" s="19">
+      <c r="A25" s="25">
         <v>1</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="24"/>
+      <c r="B25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="30"/>
     </row>
     <row r="27" ht="15.6" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
+      <c r="A27" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>48</v>
+      <c r="B28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="26">
+      <c r="A29" s="32">
         <v>1</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="1">
